--- a/gas_phase_cl_saop.xlsx
+++ b/gas_phase_cl_saop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573FD972-C652-F34A-B1AB-FD5201AA6CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7804BCEF-C937-7140-96A7-F02D3C81B6E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="560" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="-1920" yWindow="1440" windowWidth="17420" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="B4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,16 +421,16 @@
         <v>2754.42</v>
       </c>
       <c r="D5">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F5">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H5">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J5">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -438,16 +438,16 @@
         <v>2754.42</v>
       </c>
       <c r="D6">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F6">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H6">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J6">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -455,16 +455,16 @@
         <v>2754.42</v>
       </c>
       <c r="D7">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F7">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H7">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J7">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -472,16 +472,16 @@
         <v>2754.42</v>
       </c>
       <c r="D8">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F8">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H8">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J8">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -489,16 +489,16 @@
         <v>2754.42</v>
       </c>
       <c r="D9">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F9">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H9">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J9">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -506,16 +506,16 @@
         <v>2754.42</v>
       </c>
       <c r="D10">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F10">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H10">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J10">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -523,16 +523,16 @@
         <v>2754.42</v>
       </c>
       <c r="D11">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F11">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H11">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J11">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -540,16 +540,16 @@
         <v>2754.42</v>
       </c>
       <c r="D12">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F12">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H12">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J12">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -557,16 +557,16 @@
         <v>2754.42</v>
       </c>
       <c r="D13">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F13">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H13">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J13">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -574,16 +574,16 @@
         <v>2754.42</v>
       </c>
       <c r="D14">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F14">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H14">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J14">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -591,16 +591,16 @@
         <v>2754.42</v>
       </c>
       <c r="D15">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F15">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H15">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J15">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -608,16 +608,16 @@
         <v>2754.42</v>
       </c>
       <c r="D16">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F16">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H16">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J16">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -625,16 +625,16 @@
         <v>2754.42</v>
       </c>
       <c r="D17">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F17">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H17">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J17">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -642,16 +642,16 @@
         <v>2754.42</v>
       </c>
       <c r="D18">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F18">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H18">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J18">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -659,16 +659,16 @@
         <v>2754.42</v>
       </c>
       <c r="D19">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F19">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H19">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J19">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -676,16 +676,16 @@
         <v>2754.42</v>
       </c>
       <c r="D20">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F20">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H20">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J20">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -693,16 +693,16 @@
         <v>2754.42</v>
       </c>
       <c r="D21">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F21">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H21">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J21">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -710,16 +710,16 @@
         <v>2754.42</v>
       </c>
       <c r="D22">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F22">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H22">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J22">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -727,16 +727,16 @@
         <v>2754.42</v>
       </c>
       <c r="D23">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F23">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H23">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J23">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -744,16 +744,16 @@
         <v>2754.42</v>
       </c>
       <c r="D24">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F24">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H24">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J24">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -761,16 +761,16 @@
         <v>2754.42</v>
       </c>
       <c r="D25">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F25">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H25">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J25">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -778,16 +778,16 @@
         <v>2754.42</v>
       </c>
       <c r="D26">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F26">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H26">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J26">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
@@ -795,16 +795,16 @@
         <v>2754.42</v>
       </c>
       <c r="D27">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F27">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H27">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J27">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -812,33 +812,33 @@
         <v>2754.42</v>
       </c>
       <c r="D28">
-        <v>243.875</v>
+        <v>243.88</v>
       </c>
       <c r="F28">
-        <v>198.97206829999999</v>
+        <v>183.18</v>
       </c>
       <c r="H28">
-        <v>199.8198792</v>
+        <v>184.02</v>
       </c>
       <c r="J28">
-        <v>198.1242575</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>2754.42</v>
+        <v>2754.4</v>
       </c>
       <c r="D29">
-        <v>243.875</v>
+        <v>243.9</v>
       </c>
       <c r="F29">
-        <v>198.97206829999999</v>
+        <v>183.2</v>
       </c>
       <c r="H29">
-        <v>199.8198792</v>
+        <v>184</v>
       </c>
       <c r="J29">
-        <v>198.1242575</v>
+        <v>182.4</v>
       </c>
     </row>
   </sheetData>

--- a/gas_phase_cl_saop.xlsx
+++ b/gas_phase_cl_saop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7804BCEF-C937-7140-96A7-F02D3C81B6E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289FBCE-2B87-0947-9F62-DD50C462E7E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1920" yWindow="1440" windowWidth="17420" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="5460" yWindow="460" windowWidth="17420" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,453 +391,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
-  <dimension ref="B4:J29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E5" sqref="E5:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2754.42</v>
+      </c>
       <c r="B5">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C5">
+        <v>183.18</v>
       </c>
       <c r="D5">
-        <v>243.88</v>
-      </c>
-      <c r="F5">
-        <v>183.18</v>
-      </c>
-      <c r="H5">
-        <v>184</v>
-      </c>
-      <c r="J5">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2754.42</v>
+      </c>
       <c r="B6">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C6">
+        <v>183.18</v>
       </c>
       <c r="D6">
-        <v>243.88</v>
-      </c>
-      <c r="F6">
-        <v>183.18</v>
-      </c>
-      <c r="H6">
-        <v>184</v>
-      </c>
-      <c r="J6">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2754.42</v>
+      </c>
       <c r="B7">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C7">
+        <v>183.18</v>
       </c>
       <c r="D7">
-        <v>243.88</v>
-      </c>
-      <c r="F7">
-        <v>183.18</v>
-      </c>
-      <c r="H7">
-        <v>184.02</v>
-      </c>
-      <c r="J7">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E7">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2754.42</v>
+      </c>
       <c r="B8">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C8">
+        <v>183.18</v>
       </c>
       <c r="D8">
-        <v>243.88</v>
-      </c>
-      <c r="F8">
-        <v>183.18</v>
-      </c>
-      <c r="H8">
-        <v>184.02</v>
-      </c>
-      <c r="J8">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E8">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2754.42</v>
+      </c>
       <c r="B9">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C9">
+        <v>183.18</v>
       </c>
       <c r="D9">
-        <v>243.88</v>
-      </c>
-      <c r="F9">
-        <v>183.18</v>
-      </c>
-      <c r="H9">
-        <v>184</v>
-      </c>
-      <c r="J9">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2754.42</v>
+      </c>
       <c r="B10">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C10">
+        <v>183.18</v>
       </c>
       <c r="D10">
-        <v>243.88</v>
-      </c>
-      <c r="F10">
-        <v>183.18</v>
-      </c>
-      <c r="H10">
-        <v>184.02</v>
-      </c>
-      <c r="J10">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E10">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2754.42</v>
+      </c>
       <c r="B11">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C11">
+        <v>183.18</v>
       </c>
       <c r="D11">
-        <v>243.88</v>
-      </c>
-      <c r="F11">
-        <v>183.18</v>
-      </c>
-      <c r="H11">
-        <v>184</v>
-      </c>
-      <c r="J11">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E11">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2754.42</v>
+      </c>
       <c r="B12">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C12">
+        <v>183.18</v>
       </c>
       <c r="D12">
-        <v>243.88</v>
-      </c>
-      <c r="F12">
-        <v>183.18</v>
-      </c>
-      <c r="H12">
-        <v>184.02</v>
-      </c>
-      <c r="J12">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E12">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2754.42</v>
+      </c>
       <c r="B13">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C13">
+        <v>183.18</v>
       </c>
       <c r="D13">
-        <v>243.88</v>
-      </c>
-      <c r="F13">
-        <v>183.18</v>
-      </c>
-      <c r="H13">
-        <v>184.02</v>
-      </c>
-      <c r="J13">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E13">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2754.42</v>
+      </c>
       <c r="B14">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C14">
+        <v>183.18</v>
       </c>
       <c r="D14">
-        <v>243.88</v>
-      </c>
-      <c r="F14">
-        <v>183.18</v>
-      </c>
-      <c r="H14">
-        <v>184</v>
-      </c>
-      <c r="J14">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E14">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2754.42</v>
+      </c>
       <c r="B15">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C15">
+        <v>183.18</v>
       </c>
       <c r="D15">
-        <v>243.88</v>
-      </c>
-      <c r="F15">
-        <v>183.18</v>
-      </c>
-      <c r="H15">
-        <v>184.02</v>
-      </c>
-      <c r="J15">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E15">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2754.42</v>
+      </c>
       <c r="B16">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C16">
+        <v>183.18</v>
       </c>
       <c r="D16">
-        <v>243.88</v>
-      </c>
-      <c r="F16">
-        <v>183.18</v>
-      </c>
-      <c r="H16">
-        <v>184</v>
-      </c>
-      <c r="J16">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E16">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2754.42</v>
+      </c>
       <c r="B17">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C17">
+        <v>183.18</v>
       </c>
       <c r="D17">
-        <v>243.88</v>
-      </c>
-      <c r="F17">
-        <v>183.18</v>
-      </c>
-      <c r="H17">
-        <v>184.02</v>
-      </c>
-      <c r="J17">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E17">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2754.42</v>
+      </c>
       <c r="B18">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C18">
+        <v>183.18</v>
       </c>
       <c r="D18">
-        <v>243.88</v>
-      </c>
-      <c r="F18">
-        <v>183.18</v>
-      </c>
-      <c r="H18">
-        <v>184</v>
-      </c>
-      <c r="J18">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E18">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2754.42</v>
+      </c>
       <c r="B19">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C19">
+        <v>183.18</v>
       </c>
       <c r="D19">
-        <v>243.88</v>
-      </c>
-      <c r="F19">
-        <v>183.18</v>
-      </c>
-      <c r="H19">
-        <v>184.02</v>
-      </c>
-      <c r="J19">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E19">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2754.42</v>
+      </c>
       <c r="B20">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C20">
+        <v>183.18</v>
       </c>
       <c r="D20">
-        <v>243.88</v>
-      </c>
-      <c r="F20">
-        <v>183.18</v>
-      </c>
-      <c r="H20">
-        <v>184.02</v>
-      </c>
-      <c r="J20">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E20">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2754.42</v>
+      </c>
       <c r="B21">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C21">
+        <v>183.18</v>
       </c>
       <c r="D21">
-        <v>243.88</v>
-      </c>
-      <c r="F21">
-        <v>183.18</v>
-      </c>
-      <c r="H21">
-        <v>184</v>
-      </c>
-      <c r="J21">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E21">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2754.42</v>
+      </c>
       <c r="B22">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C22">
+        <v>183.18</v>
       </c>
       <c r="D22">
-        <v>243.88</v>
-      </c>
-      <c r="F22">
-        <v>183.18</v>
-      </c>
-      <c r="H22">
-        <v>184.02</v>
-      </c>
-      <c r="J22">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E22">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2754.42</v>
+      </c>
       <c r="B23">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C23">
+        <v>183.18</v>
       </c>
       <c r="D23">
-        <v>243.88</v>
-      </c>
-      <c r="F23">
-        <v>183.18</v>
-      </c>
-      <c r="H23">
-        <v>184.02</v>
-      </c>
-      <c r="J23">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E23">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2754.42</v>
+      </c>
       <c r="B24">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C24">
+        <v>183.18</v>
       </c>
       <c r="D24">
-        <v>243.88</v>
-      </c>
-      <c r="F24">
-        <v>183.18</v>
-      </c>
-      <c r="H24">
-        <v>184</v>
-      </c>
-      <c r="J24">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E24">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2754.42</v>
+      </c>
       <c r="B25">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C25">
+        <v>183.18</v>
       </c>
       <c r="D25">
-        <v>243.88</v>
-      </c>
-      <c r="F25">
-        <v>183.18</v>
-      </c>
-      <c r="H25">
-        <v>184.02</v>
-      </c>
-      <c r="J25">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E25">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2754.42</v>
+      </c>
       <c r="B26">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C26">
+        <v>183.18</v>
       </c>
       <c r="D26">
-        <v>243.88</v>
-      </c>
-      <c r="F26">
-        <v>183.18</v>
-      </c>
-      <c r="H26">
-        <v>184</v>
-      </c>
-      <c r="J26">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E26">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2754.42</v>
+      </c>
       <c r="B27">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C27">
+        <v>183.18</v>
       </c>
       <c r="D27">
-        <v>243.88</v>
-      </c>
-      <c r="F27">
-        <v>183.18</v>
-      </c>
-      <c r="H27">
-        <v>184.02</v>
-      </c>
-      <c r="J27">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E27">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2754.42</v>
+      </c>
       <c r="B28">
-        <v>2754.42</v>
+        <v>243.88</v>
+      </c>
+      <c r="C28">
+        <v>183.18</v>
       </c>
       <c r="D28">
-        <v>243.88</v>
-      </c>
-      <c r="F28">
-        <v>183.18</v>
-      </c>
-      <c r="H28">
-        <v>184.02</v>
-      </c>
-      <c r="J28">
-        <v>182.35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184.02</v>
+      </c>
+      <c r="E28">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2754.4</v>
+      </c>
       <c r="B29">
-        <v>2754.4</v>
+        <v>243.9</v>
+      </c>
+      <c r="C29">
+        <v>183.2</v>
       </c>
       <c r="D29">
-        <v>243.9</v>
-      </c>
-      <c r="F29">
-        <v>183.2</v>
-      </c>
-      <c r="H29">
-        <v>184</v>
-      </c>
-      <c r="J29">
+        <v>184</v>
+      </c>
+      <c r="E29">
         <v>182.4</v>
       </c>
     </row>

--- a/gas_phase_cl_saop.xlsx
+++ b/gas_phase_cl_saop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289FBCE-2B87-0947-9F62-DD50C462E7E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7668BA46-3386-6E46-9FA2-944A7E062D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="460" windowWidth="17420" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
         <v>183.18</v>
       </c>
       <c r="D7">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>182.35</v>
@@ -478,7 +478,7 @@
         <v>183.18</v>
       </c>
       <c r="D8">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>182.35</v>
@@ -512,7 +512,7 @@
         <v>183.18</v>
       </c>
       <c r="D10">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>182.35</v>
@@ -546,7 +546,7 @@
         <v>183.18</v>
       </c>
       <c r="D12">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>182.35</v>
@@ -563,7 +563,7 @@
         <v>183.18</v>
       </c>
       <c r="D13">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>182.35</v>
@@ -597,7 +597,7 @@
         <v>183.18</v>
       </c>
       <c r="D15">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>182.35</v>
@@ -631,7 +631,7 @@
         <v>183.18</v>
       </c>
       <c r="D17">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>182.35</v>
@@ -665,7 +665,7 @@
         <v>183.18</v>
       </c>
       <c r="D19">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>182.35</v>
@@ -682,7 +682,7 @@
         <v>183.18</v>
       </c>
       <c r="D20">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E20">
         <v>182.35</v>
@@ -716,7 +716,7 @@
         <v>183.18</v>
       </c>
       <c r="D22">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>182.35</v>
@@ -733,7 +733,7 @@
         <v>183.18</v>
       </c>
       <c r="D23">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>182.35</v>
@@ -767,7 +767,7 @@
         <v>183.18</v>
       </c>
       <c r="D25">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>182.35</v>
@@ -801,7 +801,7 @@
         <v>183.18</v>
       </c>
       <c r="D27">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>182.35</v>
@@ -818,7 +818,7 @@
         <v>183.18</v>
       </c>
       <c r="D28">
-        <v>184.02</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>182.35</v>
@@ -826,19 +826,19 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2754.4</v>
+        <v>2754.42</v>
       </c>
       <c r="B29">
-        <v>243.9</v>
+        <v>243.88</v>
       </c>
       <c r="C29">
-        <v>183.2</v>
+        <v>183.18</v>
       </c>
       <c r="D29">
         <v>184</v>
       </c>
       <c r="E29">
-        <v>182.4</v>
+        <v>182.35</v>
       </c>
     </row>
   </sheetData>
